--- a/public/template 2023.xlsx
+++ b/public/template 2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="32"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="27" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="4.1.1" sheetId="44" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="267">
   <si>
     <t>Tabel</t>
   </si>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>7.3</t>
+  </si>
+  <si>
+    <t>4G/LTE</t>
+  </si>
+  <si>
+    <t>3G/H/H+/EVDO</t>
+  </si>
+  <si>
+    <t>2,5G/E/GPRS</t>
+  </si>
+  <si>
+    <t>Tidak ada sinyal internet</t>
   </si>
 </sst>
 </file>
@@ -1705,34 +1717,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1741,122 +1843,32 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2188,31 +2200,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87" t="s">
         <v>41</v>
       </c>
@@ -2224,12 +2236,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
@@ -2242,11 +2254,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="42"/>
@@ -2254,118 +2266,118 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="42"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="42"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="42"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="42"/>
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="42"/>
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="42"/>
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="42"/>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -2373,48 +2385,48 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
     </row>
     <row r="18" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2447,140 +2459,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="42"/>
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="42"/>
       <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="136"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="91"/>
       <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
     </row>
     <row r="14" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -2590,6 +2596,12 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="82" orientation="portrait" r:id="rId1"/>
@@ -2627,19 +2639,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2654,62 +2666,62 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="125" t="s">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="112" t="s">
+      <c r="M4" s="105"/>
+      <c r="N4" s="98" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
       <c r="L5" s="37" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="123"/>
+      <c r="N5" s="106"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="55" t="s">
         <v>8</v>
       </c>
@@ -2719,12 +2731,12 @@
       <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="55" t="s">
         <v>11</v>
       </c>
@@ -2737,85 +2749,85 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="97"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2823,33 +2835,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="97" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="122" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
@@ -2859,17 +2871,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="H4:K5"/>
@@ -2886,6 +2887,17 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:N13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2922,112 +2934,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="33"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="34"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
     </row>
     <row r="12" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -3036,6 +3043,11 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="88" orientation="portrait" r:id="rId1"/>
@@ -3069,40 +3081,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>10</v>
       </c>
@@ -3115,150 +3127,150 @@
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="84" orientation="portrait" r:id="rId1"/>
@@ -3292,42 +3304,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="89" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="59" t="s">
         <v>4</v>
       </c>
@@ -3337,15 +3349,15 @@
       <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="57" t="s">
         <v>8</v>
       </c>
@@ -3390,54 +3402,54 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="62"/>
       <c r="F8" s="63"/>
       <c r="G8" s="62"/>
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3471,109 +3483,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="102"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="79">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" s="65" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="54"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -3607,40 +3619,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="46">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="56" t="s">
         <v>10</v>
       </c>
@@ -3653,100 +3665,100 @@
       <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="115"/>
+      <c r="B13" s="94"/>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3780,40 +3792,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="84" t="s">
         <v>8</v>
       </c>
@@ -3826,146 +3838,141 @@
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="133" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="133" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
     </row>
     <row r="21" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="A7:D7"/>
@@ -3982,6 +3989,11 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4015,34 +4027,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87" t="s">
         <v>234</v>
       </c>
@@ -4063,12 +4075,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
@@ -4090,9 +4102,9 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -4102,9 +4114,9 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -4114,9 +4126,9 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -4125,12 +4137,12 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -4140,39 +4152,34 @@
     </row>
     <row r="9" spans="1:10" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A1:B1"/>
@@ -4181,6 +4188,11 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="68" orientation="portrait" r:id="rId1"/>
@@ -4214,109 +4226,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
     </row>
     <row r="12" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A1:B1"/>
@@ -4325,6 +4332,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="68" orientation="portrait" r:id="rId1"/>
@@ -4358,31 +4370,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -4394,12 +4406,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -4412,9 +4424,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="42"/>
@@ -4422,9 +4434,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="24"/>
       <c r="F6" s="43"/>
       <c r="G6" s="42"/>
@@ -4432,31 +4444,31 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="24"/>
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="44"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4464,34 +4476,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -4500,6 +4507,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4543,20 +4555,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4575,12 +4587,12 @@
       <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
@@ -4593,12 +4605,12 @@
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
       <c r="M4" s="4" t="s">
         <v>77</v>
       </c>
@@ -4611,12 +4623,12 @@
       <c r="P4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
       <c r="U4" s="87" t="s">
         <v>81</v>
       </c>
@@ -4628,12 +4640,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -4646,12 +4658,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -4664,12 +4676,12 @@
       <c r="P5" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="113" t="s">
+      <c r="Q5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
       <c r="U5" s="85" t="s">
         <v>83</v>
       </c>
@@ -4682,132 +4694,132 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="115" t="s">
+      <c r="Q11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="115"/>
+      <c r="R11" s="94"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -4815,43 +4827,43 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="115" t="s">
+      <c r="Q12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="115"/>
-      <c r="S12" s="122" t="s">
+      <c r="R12" s="94"/>
+      <c r="S12" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -4861,29 +4873,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4892,6 +4881,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4938,20 +4950,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4970,12 +4982,12 @@
       <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
@@ -4988,12 +5000,12 @@
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
       <c r="M4" s="4" t="s">
         <v>77</v>
       </c>
@@ -5006,12 +5018,12 @@
       <c r="P4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
       <c r="U4" s="87" t="s">
         <v>81</v>
       </c>
@@ -5023,12 +5035,12 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5041,12 +5053,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -5057,12 +5069,12 @@
         <v>54</v>
       </c>
       <c r="P5" s="85"/>
-      <c r="Q5" s="113" t="s">
+      <c r="Q5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
       <c r="U5" s="85" t="s">
         <v>83</v>
       </c>
@@ -5075,25 +5087,25 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -5101,25 +5113,25 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
@@ -5127,83 +5139,83 @@
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
       <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="120" t="s">
+      <c r="Q9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:24" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="115" t="s">
+      <c r="Q11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="115"/>
+      <c r="R11" s="94"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -5211,43 +5223,43 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="115" t="s">
+      <c r="Q12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115" t="s">
+      <c r="R12" s="94"/>
+      <c r="S12" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
     </row>
     <row r="13" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -5257,29 +5269,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -5288,6 +5277,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="90" orientation="portrait" r:id="rId1"/>
@@ -5329,19 +5341,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="P1">
         <v>1</v>
       </c>
@@ -5410,12 +5422,12 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4" t="s">
         <v>87</v>
       </c>
@@ -5425,12 +5437,12 @@
       <c r="G4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="4" t="s">
         <v>90</v>
       </c>
@@ -5439,12 +5451,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5454,12 +5466,12 @@
       <c r="G5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
       <c r="L5" s="55" t="s">
         <v>11</v>
       </c>
@@ -5469,48 +5481,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="31"/>
       <c r="F6" s="83"/>
       <c r="G6" s="31"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="31"/>
       <c r="F7" s="83"/>
       <c r="G7" s="31"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="31"/>
       <c r="F8" s="83"/>
       <c r="G8" s="31"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="6"/>
@@ -5532,49 +5544,49 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="115"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115" t="s">
+      <c r="I12" s="94"/>
+      <c r="J12" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
@@ -5588,18 +5600,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -5608,6 +5608,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="81" orientation="portrait" r:id="rId1"/>
@@ -5645,46 +5657,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="129" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="127" t="s">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="137" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="13" t="s">
         <v>118</v>
       </c>
@@ -5694,15 +5706,15 @@
       <c r="G4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="123"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5717,144 +5729,144 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -5862,9 +5874,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -5872,10 +5884,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -5884,28 +5896,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -5915,14 +5927,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="H3:H4"/>
@@ -5939,6 +5943,14 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5972,18 +5984,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5994,12 +6006,12 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="87" t="s">
         <v>102</v>
       </c>
@@ -6008,12 +6020,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="85" t="s">
         <v>8</v>
       </c>
@@ -6023,60 +6035,60 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -6134,18 +6146,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6176,12 +6188,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>132</v>
       </c>
@@ -6202,12 +6214,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6223,27 +6235,27 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="76"/>
       <c r="F6" s="76"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="G7" s="6"/>
@@ -6258,34 +6270,34 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6299,6 +6311,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6306,11 +6323,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="98" orientation="portrait" r:id="rId1"/>
@@ -6345,18 +6357,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -6387,12 +6399,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6413,12 +6425,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6440,9 +6452,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -6455,18 +6467,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -6481,34 +6493,34 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6527,6 +6539,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6534,11 +6551,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6556,10 +6568,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,28 +6583,34 @@
     <col min="5" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="I2">
@@ -6601,14 +6619,20 @@
       <c r="J2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>145</v>
       </c>
@@ -6625,13 +6649,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6646,37 +6670,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="77"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6685,53 +6709,58 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+    <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-    </row>
-    <row r="12" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6739,11 +6768,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="77" orientation="portrait" r:id="rId1"/>
@@ -6776,18 +6800,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="J1">
         <v>1</v>
       </c>
@@ -6806,12 +6830,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
@@ -6826,12 +6850,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6847,68 +6871,68 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
@@ -6917,6 +6941,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6924,12 +6954,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="59" orientation="portrait" r:id="rId1"/>
@@ -6947,10 +6971,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6961,27 +6985,33 @@
     <col min="4" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="J1">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="J2">
@@ -6990,14 +7020,20 @@
       <c r="K2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="65.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="65.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="87" t="s">
         <v>258</v>
       </c>
@@ -7010,14 +7046,20 @@
       <c r="K3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
@@ -7030,84 +7072,85 @@
       <c r="K4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:11" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+    <row r="9" spans="1:13" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-    </row>
-    <row r="12" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+    </row>
+    <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A1:B1"/>
@@ -7116,6 +7159,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="59" orientation="portrait" r:id="rId1"/>
@@ -7149,31 +7197,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -7185,12 +7233,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -7203,9 +7251,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="15"/>
@@ -7213,9 +7261,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="15"/>
@@ -7223,31 +7271,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="15"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7255,29 +7303,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7285,12 +7339,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7325,31 +7373,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>103</v>
       </c>
@@ -7361,12 +7409,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -7379,48 +7427,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7428,29 +7476,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7458,12 +7512,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -7499,32 +7547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>106</v>
       </c>
@@ -7539,12 +7587,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -7560,9 +7608,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -7570,9 +7618,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -7580,21 +7628,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -7602,10 +7650,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7614,28 +7662,28 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -7645,6 +7693,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7652,12 +7706,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -7677,8 +7725,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,19 +7743,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7722,12 +7770,12 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
@@ -7737,12 +7785,12 @@
       <c r="G4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="87" t="s">
         <v>99</v>
       </c>
@@ -7754,12 +7802,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -7769,12 +7817,12 @@
       <c r="G5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
       <c r="L5" s="55" t="s">
         <v>52</v>
       </c>
@@ -7787,83 +7835,83 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="19"/>
       <c r="M6" s="22"/>
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="20"/>
       <c r="M7" s="24"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="20"/>
       <c r="M8" s="24"/>
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="25"/>
       <c r="M9" s="30"/>
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -7871,29 +7919,29 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -7903,18 +7951,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A11:B11"/>
@@ -7925,6 +7961,18 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:N12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -7944,7 +7992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7966,20 +8014,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="Y1">
         <v>0</v>
       </c>
@@ -8012,12 +8060,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
@@ -8030,12 +8078,12 @@
       <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
       <c r="M4" s="3" t="s">
         <v>48</v>
       </c>
@@ -8056,12 +8104,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -8074,12 +8122,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -8101,17 +8149,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="38"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="39"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -8119,17 +8167,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="38"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="39"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
@@ -8137,17 +8185,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="38"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="39"/>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -8173,18 +8221,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="115"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -8193,36 +8241,36 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="122" t="s">
+      <c r="J12" s="94"/>
+      <c r="K12" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
@@ -8236,18 +8284,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -8256,6 +8292,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="72" orientation="portrait" r:id="rId1"/>
@@ -8293,19 +8341,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="R1">
         <v>0</v>
       </c>
@@ -8338,32 +8386,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="125" t="s">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="112" t="s">
+      <c r="M4" s="105"/>
+      <c r="N4" s="98" t="s">
         <v>66</v>
       </c>
       <c r="R4">
@@ -8374,24 +8422,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
       <c r="L5" s="37" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="123"/>
+      <c r="N5" s="106"/>
       <c r="R5">
         <v>4</v>
       </c>
@@ -8400,12 +8448,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="55" t="s">
         <v>8</v>
       </c>
@@ -8415,12 +8463,12 @@
       <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="55" t="s">
         <v>11</v>
       </c>
@@ -8433,48 +8481,48 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="65"/>
       <c r="M8" s="65"/>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="65"/>
       <c r="M9" s="65"/>
       <c r="N9" s="65"/>
@@ -8497,17 +8545,17 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="97"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -8515,65 +8563,55 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="97" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="122" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -8590,6 +8628,16 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8626,30 +8674,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -8658,12 +8706,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -8673,71 +8721,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8787,31 +8835,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -8823,12 +8871,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -8841,9 +8889,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="42"/>
@@ -8851,9 +8899,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="42"/>
@@ -8861,31 +8909,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="30"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8893,34 +8941,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8929,6 +8972,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8962,31 +9010,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -8998,12 +9046,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9016,9 +9064,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="15"/>
@@ -9026,9 +9074,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="15"/>
@@ -9036,31 +9084,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="15"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9068,29 +9116,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9098,12 +9152,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9137,31 +9185,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9173,12 +9221,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9191,9 +9239,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -9201,9 +9249,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -9211,21 +9259,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25">
         <v>0</v>
       </c>
@@ -9238,10 +9286,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9249,29 +9297,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9279,12 +9333,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9319,31 +9367,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9355,12 +9403,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9373,9 +9421,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -9383,9 +9431,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -9393,31 +9441,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9425,29 +9473,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9455,12 +9509,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="97" orientation="portrait" r:id="rId1"/>
@@ -9495,31 +9543,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9531,12 +9579,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9549,9 +9597,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="22"/>
       <c r="G5" s="15"/>
@@ -9559,9 +9607,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="24"/>
       <c r="G6" s="15"/>
@@ -9569,31 +9617,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="24"/>
       <c r="G7" s="15"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9601,34 +9649,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -9637,6 +9680,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9670,31 +9718,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="1">
         <v>13</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9706,12 +9754,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9724,9 +9772,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -9734,9 +9782,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -9744,31 +9792,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9776,29 +9824,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9806,12 +9860,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>

--- a/public/template 2023.xlsx
+++ b/public/template 2023.xlsx
@@ -9,64 +9,66 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="27" activeTab="31"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="4.1.1" sheetId="44" r:id="rId1"/>
-    <sheet name="4.1.2 a" sheetId="13" r:id="rId2"/>
-    <sheet name="4.1.2 b" sheetId="14" r:id="rId3"/>
-    <sheet name="4.1.2 c" sheetId="15" r:id="rId4"/>
-    <sheet name="4.1.2 d" sheetId="16" r:id="rId5"/>
-    <sheet name="4.1.2 e" sheetId="17" r:id="rId6"/>
-    <sheet name="4.1.2 f" sheetId="19" r:id="rId7"/>
-    <sheet name="4.1.2 g" sheetId="18" r:id="rId8"/>
-    <sheet name="4.1.2 h" sheetId="20" r:id="rId9"/>
-    <sheet name="4.2.1" sheetId="45" r:id="rId10"/>
-    <sheet name="4.2.2" sheetId="22" r:id="rId11"/>
-    <sheet name="4.2.3" sheetId="25" r:id="rId12"/>
-    <sheet name="4.3.1" sheetId="7" r:id="rId13"/>
-    <sheet name="4.3.2" sheetId="1" r:id="rId14"/>
-    <sheet name="4.3.3" sheetId="6" r:id="rId15"/>
-    <sheet name="4.3.4" sheetId="8" r:id="rId16"/>
-    <sheet name="4.3.5" sheetId="9" r:id="rId17"/>
-    <sheet name="4.4.1" sheetId="46" r:id="rId18"/>
-    <sheet name="4.4.3" sheetId="47" r:id="rId19"/>
-    <sheet name="4.4.5" sheetId="27" r:id="rId20"/>
-    <sheet name="4.4.6" sheetId="28" r:id="rId21"/>
-    <sheet name="4.4.7" sheetId="29" r:id="rId22"/>
-    <sheet name="4.4.8" sheetId="42" r:id="rId23"/>
-    <sheet name="6.1.1" sheetId="48" r:id="rId24"/>
-    <sheet name="6.2.1 a" sheetId="36" r:id="rId25"/>
-    <sheet name="6.2.1 b" sheetId="37" r:id="rId26"/>
-    <sheet name="6.2.2" sheetId="38" r:id="rId27"/>
-    <sheet name="6.3.1" sheetId="34" r:id="rId28"/>
-    <sheet name="6.3.2" sheetId="49" r:id="rId29"/>
-    <sheet name="7.1" sheetId="31" r:id="rId30"/>
-    <sheet name="7.2" sheetId="32" r:id="rId31"/>
-    <sheet name="7.3" sheetId="30" r:id="rId32"/>
-    <sheet name="T14" sheetId="40" r:id="rId33"/>
-    <sheet name="T16" sheetId="41" r:id="rId34"/>
-    <sheet name="T24" sheetId="33" r:id="rId35"/>
+    <sheet name="1.1.2" sheetId="51" r:id="rId1"/>
+    <sheet name="1.1.3" sheetId="52" r:id="rId2"/>
+    <sheet name="4.1.1" sheetId="44" r:id="rId3"/>
+    <sheet name="4.1.2 a" sheetId="13" r:id="rId4"/>
+    <sheet name="4.1.2 b" sheetId="14" r:id="rId5"/>
+    <sheet name="4.1.2 c" sheetId="15" r:id="rId6"/>
+    <sheet name="4.1.2 d" sheetId="16" r:id="rId7"/>
+    <sheet name="4.1.2 e" sheetId="17" r:id="rId8"/>
+    <sheet name="4.1.2 f" sheetId="19" r:id="rId9"/>
+    <sheet name="4.1.2 g" sheetId="18" r:id="rId10"/>
+    <sheet name="4.1.2 h" sheetId="20" r:id="rId11"/>
+    <sheet name="4.2.1" sheetId="45" r:id="rId12"/>
+    <sheet name="4.2.2" sheetId="22" r:id="rId13"/>
+    <sheet name="4.2.3" sheetId="25" r:id="rId14"/>
+    <sheet name="4.3.1" sheetId="7" r:id="rId15"/>
+    <sheet name="4.3.2" sheetId="1" r:id="rId16"/>
+    <sheet name="4.3.3" sheetId="6" r:id="rId17"/>
+    <sheet name="4.3.4" sheetId="8" r:id="rId18"/>
+    <sheet name="4.3.5" sheetId="9" r:id="rId19"/>
+    <sheet name="4.4.1" sheetId="46" r:id="rId20"/>
+    <sheet name="4.4.3" sheetId="47" r:id="rId21"/>
+    <sheet name="4.4.5" sheetId="27" r:id="rId22"/>
+    <sheet name="4.4.6" sheetId="28" r:id="rId23"/>
+    <sheet name="4.4.7" sheetId="29" r:id="rId24"/>
+    <sheet name="4.4.8" sheetId="42" r:id="rId25"/>
+    <sheet name="6.1.1" sheetId="48" r:id="rId26"/>
+    <sheet name="6.2.1 a" sheetId="36" r:id="rId27"/>
+    <sheet name="6.2.1 b" sheetId="37" r:id="rId28"/>
+    <sheet name="6.2.2" sheetId="38" r:id="rId29"/>
+    <sheet name="6.3.1" sheetId="34" r:id="rId30"/>
+    <sheet name="6.3.2" sheetId="49" r:id="rId31"/>
+    <sheet name="7.1" sheetId="31" r:id="rId32"/>
+    <sheet name="7.2" sheetId="32" r:id="rId33"/>
+    <sheet name="7.3" sheetId="30" r:id="rId34"/>
+    <sheet name="T14" sheetId="40" r:id="rId35"/>
+    <sheet name="T16" sheetId="41" r:id="rId36"/>
+    <sheet name="T24" sheetId="33" r:id="rId37"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'4.2.2'!$A$1:$N$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'4.3.3'!$A$1:$E$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'4.4.1'!$A$1:$J$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'4.4.3'!$A$1:$E$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'4.4.5'!$A$1:$W$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">'4.4.6'!$A$1:$W$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">'4.4.7'!$A$1:$M$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">'4.4.8'!$A$1:$H$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="23">'6.1.1'!$A$1:$F$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="24">'6.2.1 a'!$A$1:$F$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="25">'6.2.1 b'!$A$1:$F$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="26">'6.2.2'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">'6.3.1'!$A$1:$F$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="28">'6.3.2'!$A$1:$F$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="30">'7.2'!$A$1:$H$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="31">'7.3'!$A$1:$N$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="32">'T14'!$A$1:$P$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="33">'T16'!$A$1:$N$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'4.2.2'!$A$1:$N$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'4.3.3'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'4.4.1'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'4.4.3'!$A$1:$E$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'4.4.5'!$A$1:$W$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">'4.4.6'!$A$1:$W$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">'4.4.7'!$A$1:$M$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">'4.4.8'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="25">'6.1.1'!$A$1:$F$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">'6.2.1 a'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">'6.2.1 b'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="28">'6.2.2'!$A$1:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="29">'6.3.1'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="30">'6.3.2'!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="32">'7.2'!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="33">'7.3'!$A$1:$N$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="34">'T14'!$A$1:$P$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="35">'T16'!$A$1:$N$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>Tabel</t>
   </si>
@@ -1004,6 +1006,30 @@
   </si>
   <si>
     <t>Tidak ada sinyal internet</t>
+  </si>
+  <si>
+    <t>Jarak ke Ibukota Kecamatan dan Ibukota Kabupaten/Kota Menurut Desa/Kelurahan di Kecamatan xxx (km), 2021</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Jarak ke Ibukota Kecamatan</t>
+  </si>
+  <si>
+    <t>Jarak ke Ibukota Kabupaten/Kota</t>
+  </si>
+  <si>
+    <t>Lokasi Desa/Kelurahan Terhadap Laut di Kecamatan xxx 2021</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Tepi Laut</t>
+  </si>
+  <si>
+    <t>Bukan Tepi Laut</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1502,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1732,72 +1758,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,14 +1848,11 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1837,24 +1875,21 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1864,11 +1899,17 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2184,10 +2225,335 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+    </row>
+    <row r="11" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
+  <pageSetup paperSize="11" scale="61" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
+    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
+    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
+    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
+    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
+    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
+    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,233 +2566,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="97"/>
+      <c r="C1" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="87" t="s">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="85" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-    </row>
-    <row r="18" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="13">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2439,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2459,134 +2740,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="42"/>
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="42"/>
       <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89"/>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="91"/>
       <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -2596,12 +2883,6 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="82" orientation="portrait" r:id="rId1"/>
@@ -2614,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2639,19 +2920,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2666,62 +2947,62 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="98" t="s">
+      <c r="M4" s="111"/>
+      <c r="N4" s="99" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="37" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="106"/>
+      <c r="N5" s="107"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="55" t="s">
         <v>8</v>
       </c>
@@ -2731,12 +3012,12 @@
       <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="55" t="s">
         <v>11</v>
       </c>
@@ -2749,85 +3030,85 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="108"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2835,33 +3116,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="108" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109" t="s">
+      <c r="I13" s="109"/>
+      <c r="J13" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
@@ -2871,6 +3152,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="H4:K5"/>
@@ -2887,17 +3179,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:N13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2913,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2934,107 +3215,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="33"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="34"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -3043,11 +3329,6 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="88" orientation="portrait" r:id="rId1"/>
@@ -3060,7 +3341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3081,40 +3362,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>10</v>
       </c>
@@ -3127,150 +3408,150 @@
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="108"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="84" orientation="portrait" r:id="rId1"/>
@@ -3283,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3304,42 +3585,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="114" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="59" t="s">
         <v>4</v>
       </c>
@@ -3349,15 +3630,15 @@
       <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="114"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="57" t="s">
         <v>8</v>
       </c>
@@ -3402,54 +3683,54 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="62"/>
       <c r="F8" s="63"/>
       <c r="G8" s="62"/>
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3462,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3483,109 +3764,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="127"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="79">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" s="64" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" s="65" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="54"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -3598,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3619,40 +3900,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="46">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="56" t="s">
         <v>10</v>
       </c>
@@ -3665,100 +3946,100 @@
       <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="103"/>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
     </row>
     <row r="15" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3771,7 +4052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3792,40 +4073,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="84" t="s">
         <v>8</v>
       </c>
@@ -3838,141 +4119,146 @@
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="135" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="135" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="108"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="A7:D7"/>
@@ -3989,11 +4275,6 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4006,7 +4287,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+    </row>
+    <row r="11" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
+  <pageSetup paperSize="11" scale="61" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
+    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
+    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
+    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4027,34 +4457,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="87" t="s">
         <v>234</v>
       </c>
@@ -4075,12 +4505,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
@@ -4102,9 +4532,9 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -4114,9 +4544,9 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -4126,9 +4556,9 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -4137,12 +4567,12 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -4152,31 +4582,31 @@
     </row>
     <row r="9" spans="1:10" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4205,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4226,101 +4656,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4349,182 +4779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="1.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-    </row>
-    <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentOddEven="1">
-    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
-    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
-    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
-    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4555,20 +4810,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4587,12 +4842,12 @@
       <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
@@ -4605,12 +4860,12 @@
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="4" t="s">
         <v>77</v>
       </c>
@@ -4623,12 +4878,12 @@
       <c r="P4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
       <c r="U4" s="87" t="s">
         <v>81</v>
       </c>
@@ -4640,12 +4895,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -4658,12 +4913,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -4676,12 +4931,12 @@
       <c r="P5" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
       <c r="U5" s="85" t="s">
         <v>83</v>
       </c>
@@ -4694,132 +4949,132 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="94" t="s">
+      <c r="Q11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="94"/>
+      <c r="R11" s="103"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -4827,43 +5082,43 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="94" t="s">
+      <c r="Q12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="109" t="s">
+      <c r="R12" s="103"/>
+      <c r="S12" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -4873,6 +5128,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4881,29 +5159,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4920,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4950,20 +5205,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4982,12 +5237,12 @@
       <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
@@ -5000,12 +5255,12 @@
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="4" t="s">
         <v>77</v>
       </c>
@@ -5018,12 +5273,12 @@
       <c r="P4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
       <c r="U4" s="87" t="s">
         <v>81</v>
       </c>
@@ -5035,12 +5290,12 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5053,12 +5308,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -5069,12 +5324,12 @@
         <v>54</v>
       </c>
       <c r="P5" s="85"/>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
       <c r="U5" s="85" t="s">
         <v>83</v>
       </c>
@@ -5087,25 +5342,25 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -5113,25 +5368,25 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
@@ -5139,83 +5394,83 @@
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
       <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="104" t="s">
+      <c r="Q9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:24" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="94" t="s">
+      <c r="Q11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="94"/>
+      <c r="R11" s="103"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -5223,43 +5478,43 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="94" t="s">
+      <c r="Q12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94" t="s">
+      <c r="R12" s="103"/>
+      <c r="S12" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
     </row>
     <row r="13" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -5269,6 +5524,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -5277,29 +5555,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="90" orientation="portrait" r:id="rId1"/>
@@ -5316,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5341,19 +5596,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
       <c r="P1">
         <v>1</v>
       </c>
@@ -5422,12 +5677,12 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="4" t="s">
         <v>87</v>
       </c>
@@ -5437,12 +5692,12 @@
       <c r="G4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="4" t="s">
         <v>90</v>
       </c>
@@ -5451,12 +5706,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5466,12 +5721,12 @@
       <c r="G5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="55" t="s">
         <v>11</v>
       </c>
@@ -5481,48 +5736,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="31"/>
       <c r="F6" s="83"/>
       <c r="G6" s="31"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="31"/>
       <c r="F7" s="83"/>
       <c r="G7" s="31"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="31"/>
       <c r="F8" s="83"/>
       <c r="G8" s="31"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="6"/>
@@ -5544,49 +5799,49 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="94"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
@@ -5600,6 +5855,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -5608,18 +5875,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="81" orientation="portrait" r:id="rId1"/>
@@ -5635,7 +5890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5657,46 +5912,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="135" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="137" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="136" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="13" t="s">
         <v>118</v>
       </c>
@@ -5706,15 +5961,15 @@
       <c r="G4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="106"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -5729,144 +5984,144 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -5874,9 +6129,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -5884,10 +6139,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="94"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -5896,28 +6151,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="103"/>
+      <c r="C21" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -5927,6 +6182,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="H3:H4"/>
@@ -5943,14 +6206,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5963,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5984,18 +6239,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -6006,12 +6261,12 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="87" t="s">
         <v>102</v>
       </c>
@@ -6020,12 +6275,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="85" t="s">
         <v>8</v>
       </c>
@@ -6035,60 +6290,60 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -6124,7 +6379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6146,18 +6401,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6188,12 +6443,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>132</v>
       </c>
@@ -6214,12 +6469,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6235,27 +6490,27 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="76"/>
       <c r="F6" s="76"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="G7" s="6"/>
@@ -6270,34 +6525,34 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6311,11 +6566,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6323,6 +6573,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="98" orientation="portrait" r:id="rId1"/>
@@ -6335,7 +6590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6357,18 +6612,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -6399,12 +6654,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6425,12 +6680,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6452,9 +6707,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -6467,18 +6722,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -6493,34 +6748,34 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6539,11 +6794,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6551,6 +6801,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6563,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6584,19 +6839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6627,12 +6882,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>145</v>
       </c>
@@ -6650,12 +6905,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6672,9 +6927,9 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6682,9 +6937,9 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="77"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6692,9 +6947,9 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6711,10 +6966,10 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6722,26 +6977,26 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
@@ -6756,11 +7011,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6768,6 +7018,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="77" orientation="portrait" r:id="rId1"/>
@@ -6780,7 +7035,267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="89"/>
+      <c r="B14" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+    </row>
+    <row r="18" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
+    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
+    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
+    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6800,18 +7315,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="J1">
         <v>1</v>
       </c>
@@ -6830,12 +7345,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
@@ -6850,12 +7365,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -6871,68 +7386,68 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
@@ -6941,12 +7456,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6954,6 +7463,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="59" orientation="portrait" r:id="rId1"/>
@@ -6966,7 +7481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6986,18 +7501,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="J1">
         <v>1</v>
       </c>
@@ -7028,12 +7543,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="65.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="87" t="s">
         <v>258</v>
       </c>
@@ -7054,12 +7569,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="85" t="s">
         <v>8</v>
       </c>
@@ -7081,68 +7596,68 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
@@ -7176,182 +7691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="1.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-    </row>
-    <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentOddEven="1">
-    <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
-    <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
-    <evenHeader>&amp;L&amp;10NAMA BAB</evenHeader>
-    <evenFooter>&amp;L&amp;"Calibri,Regular"&amp;10&amp;P  |  Kecamatan XXX Dalam Angka 2020</evenFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7373,31 +7713,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>103</v>
       </c>
@@ -7409,12 +7749,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -7427,48 +7767,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7476,35 +7816,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7512,6 +7846,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -7524,7 +7864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7547,32 +7887,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>106</v>
       </c>
@@ -7587,12 +7927,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -7608,9 +7948,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -7618,9 +7958,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -7628,21 +7968,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -7650,10 +7990,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -7662,28 +8002,28 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -7693,12 +8033,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7706,6 +8040,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -7718,14 +8058,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -7743,19 +8083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7770,12 +8110,12 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
@@ -7785,12 +8125,12 @@
       <c r="G4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="87" t="s">
         <v>99</v>
       </c>
@@ -7802,12 +8142,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -7817,12 +8157,12 @@
       <c r="G5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="55" t="s">
         <v>52</v>
       </c>
@@ -7835,83 +8175,83 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="19"/>
       <c r="M6" s="22"/>
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="20"/>
       <c r="M7" s="24"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="20"/>
       <c r="M8" s="24"/>
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="25"/>
       <c r="M9" s="30"/>
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -7919,29 +8259,29 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
     </row>
     <row r="13" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
@@ -7951,6 +8291,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A11:B11"/>
@@ -7961,18 +8313,6 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:N12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -7988,7 +8328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
@@ -8014,20 +8354,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
       <c r="Y1">
         <v>0</v>
       </c>
@@ -8060,12 +8400,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
@@ -8078,12 +8418,12 @@
       <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="3" t="s">
         <v>48</v>
       </c>
@@ -8104,12 +8444,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="55" t="s">
         <v>8</v>
       </c>
@@ -8122,12 +8462,12 @@
       <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
       <c r="M5" s="55" t="s">
         <v>52</v>
       </c>
@@ -8149,17 +8489,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="38"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="39"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -8167,17 +8507,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="38"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="39"/>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
@@ -8185,17 +8525,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="38"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="39"/>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -8221,18 +8561,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="94"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -8241,36 +8581,36 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="109" t="s">
+      <c r="J12" s="103"/>
+      <c r="K12" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
@@ -8284,6 +8624,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -8292,18 +8644,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="72" orientation="portrait" r:id="rId1"/>
@@ -8319,7 +8659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -8341,19 +8681,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
       <c r="R1">
         <v>0</v>
       </c>
@@ -8386,32 +8726,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="98" t="s">
+      <c r="M4" s="111"/>
+      <c r="N4" s="99" t="s">
         <v>66</v>
       </c>
       <c r="R4">
@@ -8422,24 +8762,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="37" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="106"/>
+      <c r="N5" s="107"/>
       <c r="R5">
         <v>4</v>
       </c>
@@ -8448,12 +8788,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="55" t="s">
         <v>8</v>
       </c>
@@ -8463,12 +8803,12 @@
       <c r="G6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="55" t="s">
         <v>11</v>
       </c>
@@ -8481,48 +8821,48 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="65"/>
       <c r="M8" s="65"/>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
       <c r="L9" s="65"/>
       <c r="M9" s="65"/>
       <c r="N9" s="65"/>
@@ -8545,17 +8885,17 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="108"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -8563,55 +8903,65 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="108" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109" t="s">
+      <c r="I13" s="109"/>
+      <c r="J13" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -8628,16 +8978,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8653,7 +8993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8674,30 +9014,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -8706,12 +9046,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -8721,71 +9061,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8822,7 +9162,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8835,31 +9175,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -8871,12 +9211,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -8889,9 +9229,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="42"/>
@@ -8899,41 +9239,41 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="43"/>
       <c r="G6" s="42"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="43"/>
       <c r="G7" s="42"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8941,42 +9281,42 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9010,31 +9350,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
-        <v>9</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+        <v>7</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9046,12 +9386,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9064,9 +9404,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="15"/>
@@ -9074,9 +9414,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="15"/>
@@ -9084,31 +9424,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="15"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9116,35 +9456,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9152,6 +9486,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9185,31 +9525,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
-        <v>10</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+        <v>8</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9221,12 +9561,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9239,57 +9579,51 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9297,42 +9631,42 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9362,36 +9696,35 @@
     <col min="2" max="2" width="1.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
-        <v>12</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+        <v>9</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9403,12 +9736,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9421,51 +9754,51 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9473,35 +9806,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9509,9 +9836,15 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -9538,36 +9871,35 @@
     <col min="2" max="2" width="1.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
-        <v>11</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+        <v>10</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9579,12 +9911,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9597,51 +9929,57 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9649,42 +9987,42 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -9714,35 +10052,36 @@
     <col min="2" max="2" width="1.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1">
-        <v>13</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+        <v>12</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9754,12 +10093,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
@@ -9772,9 +10111,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -9782,9 +10121,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -9792,31 +10131,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9824,35 +10163,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -9860,9 +10193,15 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
